--- a/Datos/TARJETA_CREDITO.xlsx
+++ b/Datos/TARJETA_CREDITO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03620EBE-9FFA-4296-80BC-39206E59B7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A51E5FB-8907-44A3-A8CF-AF813EA4D658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13140" xr2:uid="{AC55CEA1-2383-423F-8417-3563CD54D25B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC55CEA1-2383-423F-8417-3563CD54D25B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>NUM_TARJETA</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>LIMITE_CAJERO</t>
-  </si>
-  <si>
-    <t>CLIENTE_ID</t>
   </si>
   <si>
     <t>Juan</t>
@@ -468,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10689912-D5C6-491B-92B6-4C22B1E82EB2}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +484,7 @@
     <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,18 +510,15 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>555</v>
@@ -533,16 +527,19 @@
         <v>44958</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>44086</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
       </c>
       <c r="I2">
         <v>1000</v>
@@ -550,13 +547,10 @@
       <c r="J2">
         <v>500</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>888</v>
@@ -565,16 +559,19 @@
         <v>45543</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>42353</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
       </c>
       <c r="I3">
         <v>1000</v>
@@ -582,13 +579,10 @@
       <c r="J3">
         <v>500</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>444</v>
@@ -597,16 +591,19 @@
         <v>44789</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>39589</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
       </c>
       <c r="I4">
         <v>1000</v>
@@ -614,13 +611,10 @@
       <c r="J4">
         <v>500</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>999</v>
@@ -629,16 +623,19 @@
         <v>46068</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>43804</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
       </c>
       <c r="I5">
         <v>1000</v>
@@ -646,13 +643,10 @@
       <c r="J5">
         <v>500</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>222</v>
@@ -661,25 +655,25 @@
         <v>44754</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <v>41339</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
       </c>
       <c r="I6">
         <v>1000</v>
       </c>
       <c r="J6">
         <v>500</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/TARJETA_CREDITO.xlsx
+++ b/Datos/TARJETA_CREDITO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ABD\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A51E5FB-8907-44A3-A8CF-AF813EA4D658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC55CEA1-2383-423F-8417-3563CD54D25B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -118,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,27 +463,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10689912-D5C6-491B-92B6-4C22B1E82EB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -548,7 +547,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -580,7 +579,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -612,7 +611,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -644,7 +643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>

--- a/Datos/TARJETA_CREDITO.xlsx
+++ b/Datos/TARJETA_CREDITO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ABD\ABD\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\base\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>NUM_TARJETA</t>
   </si>
@@ -84,9 +84,6 @@
     <t>ES32 1226 347 77987</t>
   </si>
   <si>
-    <t>ES32 5829 354  1000</t>
-  </si>
-  <si>
     <t>ES32 6784 345 0000</t>
   </si>
   <si>
@@ -99,19 +96,7 @@
     <t>DEBITO</t>
   </si>
   <si>
-    <t>1254 2689 5472 0214</t>
-  </si>
-  <si>
-    <t>6892 4513 7892 4568</t>
-  </si>
-  <si>
-    <t>6705 0002 0012 0068</t>
-  </si>
-  <si>
-    <t>0025 0068 4444 9862</t>
-  </si>
-  <si>
-    <t>0236 0211 6587 6203</t>
+    <t>ES32 5829 35 1000</t>
   </si>
 </sst>
 </file>
@@ -466,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,15 +494,15 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
+      <c r="A2">
+        <v>1254268954720210</v>
       </c>
       <c r="B2">
         <v>555</v>
@@ -535,7 +520,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>50</v>
@@ -548,8 +533,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
+      <c r="A3">
+        <v>6892451378924560</v>
       </c>
       <c r="B3">
         <v>888</v>
@@ -567,7 +552,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -580,8 +565,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
+      <c r="A4">
+        <v>6705000200120060</v>
       </c>
       <c r="B4">
         <v>444</v>
@@ -596,10 +581,10 @@
         <v>39589</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -612,8 +597,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
+      <c r="A5">
+        <v>25006844449862</v>
       </c>
       <c r="B5">
         <v>999</v>
@@ -628,10 +613,10 @@
         <v>43804</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -644,8 +629,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
+      <c r="A6">
+        <v>236021165876203</v>
       </c>
       <c r="B6">
         <v>222</v>
@@ -660,10 +645,10 @@
         <v>41339</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>50</v>
